--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="571">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3099,7 +3099,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4264,11 +4264,11 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
-      <selection pane="bottomRight" activeCell="I222" activeCellId="0" sqref="I222"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="J223" activeCellId="0" sqref="J223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12919,7 +12919,9 @@
       <c r="I222" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="J222" s="54"/>
+      <c r="J222" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="K222" s="54"/>
       <c r="L222" s="54"/>
       <c r="M222" s="54"/>
@@ -12964,7 +12966,9 @@
       <c r="I223" s="53" t="s">
         <v>530</v>
       </c>
-      <c r="J223" s="54"/>
+      <c r="J223" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="K223" s="54"/>
       <c r="L223" s="54"/>
       <c r="M223" s="54"/>
@@ -17663,7 +17667,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J32 M10:N32 P10:R32 J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J50:J172 M50:N172 P50:R172 J190:J225 M190:N225 P190:R225" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J32 M10:N32 P10:R32 J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J50:J172 M50:N172 P50:R172 J190:J221 M190:N225 P190:R225 J224:J225" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -1506,13 +1506,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-04T10:16:19Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8001f00f7b70e3f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.8463f16c018ea37e8b2d24be73de19373ae71d32c31696b18b04010aa52d02d1.7f52199a39^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2024-12-16T13:46:58.058Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c012415a817c03be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.a507e2fee29a630dac02dde3f390615b661565dc3ab1fb7acdf091138251b1ba.fe756fc7a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -2161,7 +2161,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,6 +2266,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2525,7 +2531,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2682,6 +2688,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2766,7 +2776,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4264,11 +4274,11 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J223" activeCellId="0" sqref="J223"/>
+      <selection pane="bottomRight" activeCell="H174" activeCellId="0" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10687,12 +10697,12 @@
         <v>374</v>
       </c>
       <c r="F173" s="31" t="n">
-        <v>45630</v>
+        <v>45642</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="H173" s="38" t="s">
+      <c r="H173" s="39" t="s">
         <v>376</v>
       </c>
       <c r="I173" s="32" t="s">
@@ -11962,92 +11972,92 @@
       <c r="T196" s="33"/>
       <c r="U196" s="34"/>
       <c r="V196" s="35"/>
-      <c r="W196" s="39" t="s">
+      <c r="W196" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="40" t="n">
+      <c r="A197" s="41" t="n">
         <v>376</v>
       </c>
-      <c r="B197" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="41" t="s">
+      <c r="B197" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="41" t="s">
+      <c r="D197" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="E197" s="42" t="s">
+      <c r="E197" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="F197" s="43"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="44"/>
-      <c r="I197" s="44"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
-      <c r="M197" s="45"/>
-      <c r="N197" s="45"/>
-      <c r="O197" s="45"/>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-      <c r="S197" s="45"/>
-      <c r="T197" s="45"/>
-      <c r="U197" s="46"/>
-      <c r="V197" s="47"/>
-      <c r="W197" s="48" t="s">
+      <c r="F197" s="44"/>
+      <c r="G197" s="45"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="46"/>
+      <c r="K197" s="46"/>
+      <c r="L197" s="46"/>
+      <c r="M197" s="46"/>
+      <c r="N197" s="46"/>
+      <c r="O197" s="46"/>
+      <c r="P197" s="46"/>
+      <c r="Q197" s="46"/>
+      <c r="R197" s="46"/>
+      <c r="S197" s="46"/>
+      <c r="T197" s="46"/>
+      <c r="U197" s="47"/>
+      <c r="V197" s="48"/>
+      <c r="W197" s="49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="49" t="n">
+      <c r="A198" s="50" t="n">
         <v>417</v>
       </c>
-      <c r="B198" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C198" s="50" t="s">
+      <c r="B198" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D198" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="E198" s="51" t="s">
+      <c r="E198" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="F198" s="52"/>
-      <c r="G198" s="53"/>
-      <c r="H198" s="53"/>
-      <c r="I198" s="53"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
-      <c r="M198" s="54"/>
-      <c r="N198" s="54"/>
-      <c r="O198" s="54"/>
-      <c r="P198" s="54"/>
-      <c r="Q198" s="54"/>
-      <c r="R198" s="54"/>
-      <c r="S198" s="54"/>
-      <c r="T198" s="54"/>
-      <c r="U198" s="55"/>
-      <c r="V198" s="56"/>
-      <c r="W198" s="57" t="s">
+      <c r="F198" s="53"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="55"/>
+      <c r="L198" s="55"/>
+      <c r="M198" s="55"/>
+      <c r="N198" s="55"/>
+      <c r="O198" s="55"/>
+      <c r="P198" s="55"/>
+      <c r="Q198" s="55"/>
+      <c r="R198" s="55"/>
+      <c r="S198" s="55"/>
+      <c r="T198" s="55"/>
+      <c r="U198" s="56"/>
+      <c r="V198" s="57"/>
+      <c r="W198" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="49" t="n">
+      <c r="A199" s="50" t="n">
         <v>418</v>
       </c>
-      <c r="B199" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="50" t="s">
+      <c r="B199" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D199" s="29" t="s">
@@ -12056,35 +12066,35 @@
       <c r="E199" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="F199" s="52"/>
-      <c r="G199" s="53"/>
-      <c r="H199" s="53"/>
-      <c r="I199" s="53"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
-      <c r="P199" s="54"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="54"/>
-      <c r="S199" s="54"/>
-      <c r="T199" s="54"/>
-      <c r="U199" s="55"/>
-      <c r="V199" s="56"/>
-      <c r="W199" s="57" t="s">
+      <c r="F199" s="53"/>
+      <c r="G199" s="54"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="54"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="55"/>
+      <c r="L199" s="55"/>
+      <c r="M199" s="55"/>
+      <c r="N199" s="55"/>
+      <c r="O199" s="55"/>
+      <c r="P199" s="55"/>
+      <c r="Q199" s="55"/>
+      <c r="R199" s="55"/>
+      <c r="S199" s="55"/>
+      <c r="T199" s="55"/>
+      <c r="U199" s="56"/>
+      <c r="V199" s="57"/>
+      <c r="W199" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="49" t="n">
+      <c r="A200" s="50" t="n">
         <v>419</v>
       </c>
-      <c r="B200" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="50" t="s">
+      <c r="B200" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D200" s="29" t="s">
@@ -12093,35 +12103,35 @@
       <c r="E200" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="F200" s="52"/>
-      <c r="G200" s="53"/>
-      <c r="H200" s="53"/>
-      <c r="I200" s="53"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="54"/>
-      <c r="Q200" s="54"/>
-      <c r="R200" s="54"/>
-      <c r="S200" s="54"/>
-      <c r="T200" s="54"/>
-      <c r="U200" s="55"/>
-      <c r="V200" s="56"/>
-      <c r="W200" s="57" t="s">
+      <c r="F200" s="53"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="55"/>
+      <c r="K200" s="55"/>
+      <c r="L200" s="55"/>
+      <c r="M200" s="55"/>
+      <c r="N200" s="55"/>
+      <c r="O200" s="55"/>
+      <c r="P200" s="55"/>
+      <c r="Q200" s="55"/>
+      <c r="R200" s="55"/>
+      <c r="S200" s="55"/>
+      <c r="T200" s="55"/>
+      <c r="U200" s="56"/>
+      <c r="V200" s="57"/>
+      <c r="W200" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="49" t="n">
+      <c r="A201" s="50" t="n">
         <v>423</v>
       </c>
-      <c r="B201" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="50" t="s">
+      <c r="B201" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D201" s="29" t="s">
@@ -12130,35 +12140,35 @@
       <c r="E201" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F201" s="52"/>
-      <c r="G201" s="53"/>
-      <c r="H201" s="53"/>
-      <c r="I201" s="53"/>
-      <c r="J201" s="54"/>
-      <c r="K201" s="54"/>
-      <c r="L201" s="54"/>
-      <c r="M201" s="54"/>
-      <c r="N201" s="54"/>
-      <c r="O201" s="54"/>
-      <c r="P201" s="54"/>
-      <c r="Q201" s="54"/>
-      <c r="R201" s="54"/>
-      <c r="S201" s="54"/>
-      <c r="T201" s="54"/>
-      <c r="U201" s="55"/>
-      <c r="V201" s="56"/>
-      <c r="W201" s="57" t="s">
+      <c r="F201" s="53"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="55"/>
+      <c r="K201" s="55"/>
+      <c r="L201" s="55"/>
+      <c r="M201" s="55"/>
+      <c r="N201" s="55"/>
+      <c r="O201" s="55"/>
+      <c r="P201" s="55"/>
+      <c r="Q201" s="55"/>
+      <c r="R201" s="55"/>
+      <c r="S201" s="55"/>
+      <c r="T201" s="55"/>
+      <c r="U201" s="56"/>
+      <c r="V201" s="57"/>
+      <c r="W201" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="49" t="n">
+      <c r="A202" s="50" t="n">
         <v>424</v>
       </c>
-      <c r="B202" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="50" t="s">
+      <c r="B202" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D202" s="29" t="s">
@@ -12167,35 +12177,35 @@
       <c r="E202" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F202" s="52"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="53"/>
-      <c r="I202" s="53"/>
-      <c r="J202" s="54"/>
-      <c r="K202" s="54"/>
-      <c r="L202" s="54"/>
-      <c r="M202" s="54"/>
-      <c r="N202" s="54"/>
-      <c r="O202" s="54"/>
-      <c r="P202" s="54"/>
-      <c r="Q202" s="54"/>
-      <c r="R202" s="54"/>
-      <c r="S202" s="54"/>
-      <c r="T202" s="54"/>
-      <c r="U202" s="55"/>
-      <c r="V202" s="56"/>
-      <c r="W202" s="57" t="s">
+      <c r="F202" s="53"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="55"/>
+      <c r="K202" s="55"/>
+      <c r="L202" s="55"/>
+      <c r="M202" s="55"/>
+      <c r="N202" s="55"/>
+      <c r="O202" s="55"/>
+      <c r="P202" s="55"/>
+      <c r="Q202" s="55"/>
+      <c r="R202" s="55"/>
+      <c r="S202" s="55"/>
+      <c r="T202" s="55"/>
+      <c r="U202" s="56"/>
+      <c r="V202" s="57"/>
+      <c r="W202" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="49" t="n">
+      <c r="A203" s="50" t="n">
         <v>425</v>
       </c>
-      <c r="B203" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="50" t="s">
+      <c r="B203" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D203" s="29" t="s">
@@ -12204,35 +12214,35 @@
       <c r="E203" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="F203" s="52"/>
-      <c r="G203" s="53"/>
-      <c r="H203" s="53"/>
-      <c r="I203" s="53"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="O203" s="54"/>
-      <c r="P203" s="54"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="54"/>
-      <c r="S203" s="54"/>
-      <c r="T203" s="54"/>
-      <c r="U203" s="55"/>
-      <c r="V203" s="56"/>
-      <c r="W203" s="57" t="s">
+      <c r="F203" s="53"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="55"/>
+      <c r="K203" s="55"/>
+      <c r="L203" s="55"/>
+      <c r="M203" s="55"/>
+      <c r="N203" s="55"/>
+      <c r="O203" s="55"/>
+      <c r="P203" s="55"/>
+      <c r="Q203" s="55"/>
+      <c r="R203" s="55"/>
+      <c r="S203" s="55"/>
+      <c r="T203" s="55"/>
+      <c r="U203" s="56"/>
+      <c r="V203" s="57"/>
+      <c r="W203" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="49" t="n">
+      <c r="A204" s="50" t="n">
         <v>426</v>
       </c>
-      <c r="B204" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="50" t="s">
+      <c r="B204" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D204" s="29" t="s">
@@ -12241,35 +12251,35 @@
       <c r="E204" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="F204" s="52"/>
-      <c r="G204" s="53"/>
-      <c r="H204" s="53"/>
-      <c r="I204" s="53"/>
-      <c r="J204" s="54"/>
-      <c r="K204" s="54"/>
-      <c r="L204" s="54"/>
-      <c r="M204" s="54"/>
-      <c r="N204" s="54"/>
-      <c r="O204" s="54"/>
-      <c r="P204" s="54"/>
-      <c r="Q204" s="54"/>
-      <c r="R204" s="54"/>
-      <c r="S204" s="54"/>
-      <c r="T204" s="54"/>
-      <c r="U204" s="55"/>
-      <c r="V204" s="56"/>
-      <c r="W204" s="57" t="s">
+      <c r="F204" s="53"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="55"/>
+      <c r="K204" s="55"/>
+      <c r="L204" s="55"/>
+      <c r="M204" s="55"/>
+      <c r="N204" s="55"/>
+      <c r="O204" s="55"/>
+      <c r="P204" s="55"/>
+      <c r="Q204" s="55"/>
+      <c r="R204" s="55"/>
+      <c r="S204" s="55"/>
+      <c r="T204" s="55"/>
+      <c r="U204" s="56"/>
+      <c r="V204" s="57"/>
+      <c r="W204" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="49" t="n">
+      <c r="A205" s="50" t="n">
         <v>427</v>
       </c>
-      <c r="B205" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" s="50" t="s">
+      <c r="B205" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -12278,35 +12288,35 @@
       <c r="E205" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="F205" s="52"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="53"/>
-      <c r="I205" s="53"/>
-      <c r="J205" s="54"/>
-      <c r="K205" s="54"/>
-      <c r="L205" s="54"/>
-      <c r="M205" s="54"/>
-      <c r="N205" s="54"/>
-      <c r="O205" s="54"/>
-      <c r="P205" s="54"/>
-      <c r="Q205" s="54"/>
-      <c r="R205" s="54"/>
-      <c r="S205" s="54"/>
-      <c r="T205" s="54"/>
-      <c r="U205" s="55"/>
-      <c r="V205" s="56"/>
-      <c r="W205" s="57" t="s">
+      <c r="F205" s="53"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="55"/>
+      <c r="K205" s="55"/>
+      <c r="L205" s="55"/>
+      <c r="M205" s="55"/>
+      <c r="N205" s="55"/>
+      <c r="O205" s="55"/>
+      <c r="P205" s="55"/>
+      <c r="Q205" s="55"/>
+      <c r="R205" s="55"/>
+      <c r="S205" s="55"/>
+      <c r="T205" s="55"/>
+      <c r="U205" s="56"/>
+      <c r="V205" s="57"/>
+      <c r="W205" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="49" t="n">
+      <c r="A206" s="50" t="n">
         <v>428</v>
       </c>
-      <c r="B206" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="50" t="s">
+      <c r="B206" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D206" s="29" t="s">
@@ -12315,35 +12325,35 @@
       <c r="E206" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="F206" s="52"/>
-      <c r="G206" s="53"/>
-      <c r="H206" s="53"/>
-      <c r="I206" s="53"/>
-      <c r="J206" s="54"/>
-      <c r="K206" s="54"/>
-      <c r="L206" s="54"/>
-      <c r="M206" s="54"/>
-      <c r="N206" s="54"/>
-      <c r="O206" s="54"/>
-      <c r="P206" s="54"/>
-      <c r="Q206" s="54"/>
-      <c r="R206" s="54"/>
-      <c r="S206" s="54"/>
-      <c r="T206" s="54"/>
-      <c r="U206" s="55"/>
-      <c r="V206" s="56"/>
-      <c r="W206" s="57" t="s">
+      <c r="F206" s="53"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="55"/>
+      <c r="K206" s="55"/>
+      <c r="L206" s="55"/>
+      <c r="M206" s="55"/>
+      <c r="N206" s="55"/>
+      <c r="O206" s="55"/>
+      <c r="P206" s="55"/>
+      <c r="Q206" s="55"/>
+      <c r="R206" s="55"/>
+      <c r="S206" s="55"/>
+      <c r="T206" s="55"/>
+      <c r="U206" s="56"/>
+      <c r="V206" s="57"/>
+      <c r="W206" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="49" t="n">
+      <c r="A207" s="50" t="n">
         <v>429</v>
       </c>
-      <c r="B207" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="50" t="s">
+      <c r="B207" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D207" s="29" t="s">
@@ -12352,35 +12362,35 @@
       <c r="E207" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="F207" s="52"/>
-      <c r="G207" s="53"/>
-      <c r="H207" s="53"/>
-      <c r="I207" s="53"/>
-      <c r="J207" s="54"/>
-      <c r="K207" s="54"/>
-      <c r="L207" s="54"/>
-      <c r="M207" s="54"/>
-      <c r="N207" s="54"/>
-      <c r="O207" s="54"/>
-      <c r="P207" s="54"/>
-      <c r="Q207" s="54"/>
-      <c r="R207" s="54"/>
-      <c r="S207" s="54"/>
-      <c r="T207" s="54"/>
-      <c r="U207" s="55"/>
-      <c r="V207" s="56"/>
-      <c r="W207" s="57" t="s">
+      <c r="F207" s="53"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="55"/>
+      <c r="K207" s="55"/>
+      <c r="L207" s="55"/>
+      <c r="M207" s="55"/>
+      <c r="N207" s="55"/>
+      <c r="O207" s="55"/>
+      <c r="P207" s="55"/>
+      <c r="Q207" s="55"/>
+      <c r="R207" s="55"/>
+      <c r="S207" s="55"/>
+      <c r="T207" s="55"/>
+      <c r="U207" s="56"/>
+      <c r="V207" s="57"/>
+      <c r="W207" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="49" t="n">
+      <c r="A208" s="50" t="n">
         <v>430</v>
       </c>
-      <c r="B208" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="50" t="s">
+      <c r="B208" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D208" s="29" t="s">
@@ -12389,35 +12399,35 @@
       <c r="E208" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="F208" s="52"/>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="53"/>
-      <c r="J208" s="54"/>
-      <c r="K208" s="54"/>
-      <c r="L208" s="54"/>
-      <c r="M208" s="54"/>
-      <c r="N208" s="54"/>
-      <c r="O208" s="54"/>
-      <c r="P208" s="54"/>
-      <c r="Q208" s="54"/>
-      <c r="R208" s="54"/>
-      <c r="S208" s="54"/>
-      <c r="T208" s="54"/>
-      <c r="U208" s="55"/>
-      <c r="V208" s="56"/>
-      <c r="W208" s="57" t="s">
+      <c r="F208" s="53"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="55"/>
+      <c r="K208" s="55"/>
+      <c r="L208" s="55"/>
+      <c r="M208" s="55"/>
+      <c r="N208" s="55"/>
+      <c r="O208" s="55"/>
+      <c r="P208" s="55"/>
+      <c r="Q208" s="55"/>
+      <c r="R208" s="55"/>
+      <c r="S208" s="55"/>
+      <c r="T208" s="55"/>
+      <c r="U208" s="56"/>
+      <c r="V208" s="57"/>
+      <c r="W208" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="49" t="n">
+      <c r="A209" s="50" t="n">
         <v>431</v>
       </c>
-      <c r="B209" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" s="50" t="s">
+      <c r="B209" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D209" s="29" t="s">
@@ -12426,35 +12436,35 @@
       <c r="E209" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="F209" s="52"/>
-      <c r="G209" s="53"/>
-      <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="54"/>
-      <c r="L209" s="54"/>
-      <c r="M209" s="54"/>
-      <c r="N209" s="54"/>
-      <c r="O209" s="54"/>
-      <c r="P209" s="54"/>
-      <c r="Q209" s="54"/>
-      <c r="R209" s="54"/>
-      <c r="S209" s="54"/>
-      <c r="T209" s="54"/>
-      <c r="U209" s="55"/>
-      <c r="V209" s="56"/>
-      <c r="W209" s="57" t="s">
+      <c r="F209" s="53"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="55"/>
+      <c r="K209" s="55"/>
+      <c r="L209" s="55"/>
+      <c r="M209" s="55"/>
+      <c r="N209" s="55"/>
+      <c r="O209" s="55"/>
+      <c r="P209" s="55"/>
+      <c r="Q209" s="55"/>
+      <c r="R209" s="55"/>
+      <c r="S209" s="55"/>
+      <c r="T209" s="55"/>
+      <c r="U209" s="56"/>
+      <c r="V209" s="57"/>
+      <c r="W209" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="49" t="n">
+      <c r="A210" s="50" t="n">
         <v>432</v>
       </c>
-      <c r="B210" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" s="50" t="s">
+      <c r="B210" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D210" s="29" t="s">
@@ -12463,35 +12473,35 @@
       <c r="E210" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="F210" s="52"/>
-      <c r="G210" s="53"/>
-      <c r="H210" s="53"/>
-      <c r="I210" s="53"/>
-      <c r="J210" s="54"/>
-      <c r="K210" s="54"/>
-      <c r="L210" s="54"/>
-      <c r="M210" s="54"/>
-      <c r="N210" s="54"/>
-      <c r="O210" s="54"/>
-      <c r="P210" s="54"/>
-      <c r="Q210" s="54"/>
-      <c r="R210" s="54"/>
-      <c r="S210" s="54"/>
-      <c r="T210" s="54"/>
-      <c r="U210" s="55"/>
-      <c r="V210" s="56"/>
-      <c r="W210" s="57" t="s">
+      <c r="F210" s="53"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="55"/>
+      <c r="K210" s="55"/>
+      <c r="L210" s="55"/>
+      <c r="M210" s="55"/>
+      <c r="N210" s="55"/>
+      <c r="O210" s="55"/>
+      <c r="P210" s="55"/>
+      <c r="Q210" s="55"/>
+      <c r="R210" s="55"/>
+      <c r="S210" s="55"/>
+      <c r="T210" s="55"/>
+      <c r="U210" s="56"/>
+      <c r="V210" s="57"/>
+      <c r="W210" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="49" t="n">
+      <c r="A211" s="50" t="n">
         <v>433</v>
       </c>
-      <c r="B211" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" s="50" t="s">
+      <c r="B211" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D211" s="29" t="s">
@@ -12500,35 +12510,35 @@
       <c r="E211" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="F211" s="52"/>
-      <c r="G211" s="53"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="54"/>
-      <c r="K211" s="54"/>
-      <c r="L211" s="54"/>
-      <c r="M211" s="54"/>
-      <c r="N211" s="54"/>
-      <c r="O211" s="54"/>
-      <c r="P211" s="54"/>
-      <c r="Q211" s="54"/>
-      <c r="R211" s="54"/>
-      <c r="S211" s="54"/>
-      <c r="T211" s="54"/>
-      <c r="U211" s="55"/>
-      <c r="V211" s="56"/>
-      <c r="W211" s="57" t="s">
+      <c r="F211" s="53"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="54"/>
+      <c r="J211" s="55"/>
+      <c r="K211" s="55"/>
+      <c r="L211" s="55"/>
+      <c r="M211" s="55"/>
+      <c r="N211" s="55"/>
+      <c r="O211" s="55"/>
+      <c r="P211" s="55"/>
+      <c r="Q211" s="55"/>
+      <c r="R211" s="55"/>
+      <c r="S211" s="55"/>
+      <c r="T211" s="55"/>
+      <c r="U211" s="56"/>
+      <c r="V211" s="57"/>
+      <c r="W211" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="49" t="n">
+      <c r="A212" s="50" t="n">
         <v>434</v>
       </c>
-      <c r="B212" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="50" t="s">
+      <c r="B212" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D212" s="29" t="s">
@@ -12537,35 +12547,35 @@
       <c r="E212" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="F212" s="52"/>
-      <c r="G212" s="53"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="53"/>
-      <c r="J212" s="54"/>
-      <c r="K212" s="54"/>
-      <c r="L212" s="54"/>
-      <c r="M212" s="54"/>
-      <c r="N212" s="54"/>
-      <c r="O212" s="54"/>
-      <c r="P212" s="54"/>
-      <c r="Q212" s="54"/>
-      <c r="R212" s="54"/>
-      <c r="S212" s="54"/>
-      <c r="T212" s="54"/>
-      <c r="U212" s="55"/>
-      <c r="V212" s="56"/>
-      <c r="W212" s="57" t="s">
+      <c r="F212" s="53"/>
+      <c r="G212" s="54"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="54"/>
+      <c r="J212" s="55"/>
+      <c r="K212" s="55"/>
+      <c r="L212" s="55"/>
+      <c r="M212" s="55"/>
+      <c r="N212" s="55"/>
+      <c r="O212" s="55"/>
+      <c r="P212" s="55"/>
+      <c r="Q212" s="55"/>
+      <c r="R212" s="55"/>
+      <c r="S212" s="55"/>
+      <c r="T212" s="55"/>
+      <c r="U212" s="56"/>
+      <c r="V212" s="57"/>
+      <c r="W212" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="49" t="n">
+      <c r="A213" s="50" t="n">
         <v>435</v>
       </c>
-      <c r="B213" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="50" t="s">
+      <c r="B213" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D213" s="29" t="s">
@@ -12574,35 +12584,35 @@
       <c r="E213" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="F213" s="52"/>
-      <c r="G213" s="53"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="53"/>
-      <c r="J213" s="54"/>
-      <c r="K213" s="54"/>
-      <c r="L213" s="54"/>
-      <c r="M213" s="54"/>
-      <c r="N213" s="54"/>
-      <c r="O213" s="54"/>
-      <c r="P213" s="54"/>
-      <c r="Q213" s="54"/>
-      <c r="R213" s="54"/>
-      <c r="S213" s="54"/>
-      <c r="T213" s="54"/>
-      <c r="U213" s="55"/>
-      <c r="V213" s="56"/>
-      <c r="W213" s="57" t="s">
+      <c r="F213" s="53"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="55"/>
+      <c r="K213" s="55"/>
+      <c r="L213" s="55"/>
+      <c r="M213" s="55"/>
+      <c r="N213" s="55"/>
+      <c r="O213" s="55"/>
+      <c r="P213" s="55"/>
+      <c r="Q213" s="55"/>
+      <c r="R213" s="55"/>
+      <c r="S213" s="55"/>
+      <c r="T213" s="55"/>
+      <c r="U213" s="56"/>
+      <c r="V213" s="57"/>
+      <c r="W213" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="49" t="n">
+      <c r="A214" s="50" t="n">
         <v>436</v>
       </c>
-      <c r="B214" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="50" t="s">
+      <c r="B214" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D214" s="29" t="s">
@@ -12611,35 +12621,35 @@
       <c r="E214" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="F214" s="52"/>
-      <c r="G214" s="53"/>
-      <c r="H214" s="53"/>
-      <c r="I214" s="53"/>
-      <c r="J214" s="54"/>
-      <c r="K214" s="54"/>
-      <c r="L214" s="54"/>
-      <c r="M214" s="54"/>
-      <c r="N214" s="54"/>
-      <c r="O214" s="54"/>
-      <c r="P214" s="54"/>
-      <c r="Q214" s="54"/>
-      <c r="R214" s="54"/>
-      <c r="S214" s="54"/>
-      <c r="T214" s="54"/>
-      <c r="U214" s="55"/>
-      <c r="V214" s="56"/>
-      <c r="W214" s="57" t="s">
+      <c r="F214" s="53"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="54"/>
+      <c r="J214" s="55"/>
+      <c r="K214" s="55"/>
+      <c r="L214" s="55"/>
+      <c r="M214" s="55"/>
+      <c r="N214" s="55"/>
+      <c r="O214" s="55"/>
+      <c r="P214" s="55"/>
+      <c r="Q214" s="55"/>
+      <c r="R214" s="55"/>
+      <c r="S214" s="55"/>
+      <c r="T214" s="55"/>
+      <c r="U214" s="56"/>
+      <c r="V214" s="57"/>
+      <c r="W214" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="49" t="n">
+      <c r="A215" s="50" t="n">
         <v>437</v>
       </c>
-      <c r="B215" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="50" t="s">
+      <c r="B215" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D215" s="29" t="s">
@@ -12648,35 +12658,35 @@
       <c r="E215" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="F215" s="52"/>
-      <c r="G215" s="53"/>
-      <c r="H215" s="53"/>
-      <c r="I215" s="53"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="54"/>
-      <c r="L215" s="54"/>
-      <c r="M215" s="54"/>
-      <c r="N215" s="54"/>
-      <c r="O215" s="54"/>
-      <c r="P215" s="54"/>
-      <c r="Q215" s="54"/>
-      <c r="R215" s="54"/>
-      <c r="S215" s="54"/>
-      <c r="T215" s="54"/>
-      <c r="U215" s="55"/>
-      <c r="V215" s="56"/>
-      <c r="W215" s="57" t="s">
+      <c r="F215" s="53"/>
+      <c r="G215" s="54"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="54"/>
+      <c r="J215" s="55"/>
+      <c r="K215" s="55"/>
+      <c r="L215" s="55"/>
+      <c r="M215" s="55"/>
+      <c r="N215" s="55"/>
+      <c r="O215" s="55"/>
+      <c r="P215" s="55"/>
+      <c r="Q215" s="55"/>
+      <c r="R215" s="55"/>
+      <c r="S215" s="55"/>
+      <c r="T215" s="55"/>
+      <c r="U215" s="56"/>
+      <c r="V215" s="57"/>
+      <c r="W215" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="49" t="n">
+      <c r="A216" s="50" t="n">
         <v>438</v>
       </c>
-      <c r="B216" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="50" t="s">
+      <c r="B216" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D216" s="29" t="s">
@@ -12685,35 +12695,35 @@
       <c r="E216" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="F216" s="52"/>
-      <c r="G216" s="53"/>
-      <c r="H216" s="53"/>
-      <c r="I216" s="53"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="54"/>
-      <c r="L216" s="54"/>
-      <c r="M216" s="54"/>
-      <c r="N216" s="54"/>
-      <c r="O216" s="54"/>
-      <c r="P216" s="54"/>
-      <c r="Q216" s="54"/>
-      <c r="R216" s="54"/>
-      <c r="S216" s="54"/>
-      <c r="T216" s="54"/>
-      <c r="U216" s="55"/>
-      <c r="V216" s="56"/>
-      <c r="W216" s="57" t="s">
+      <c r="F216" s="53"/>
+      <c r="G216" s="54"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="54"/>
+      <c r="J216" s="55"/>
+      <c r="K216" s="55"/>
+      <c r="L216" s="55"/>
+      <c r="M216" s="55"/>
+      <c r="N216" s="55"/>
+      <c r="O216" s="55"/>
+      <c r="P216" s="55"/>
+      <c r="Q216" s="55"/>
+      <c r="R216" s="55"/>
+      <c r="S216" s="55"/>
+      <c r="T216" s="55"/>
+      <c r="U216" s="56"/>
+      <c r="V216" s="57"/>
+      <c r="W216" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="49" t="n">
+      <c r="A217" s="50" t="n">
         <v>439</v>
       </c>
-      <c r="B217" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="50" t="s">
+      <c r="B217" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D217" s="29" t="s">
@@ -12722,35 +12732,35 @@
       <c r="E217" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="F217" s="52"/>
-      <c r="G217" s="53"/>
-      <c r="H217" s="53"/>
-      <c r="I217" s="53"/>
-      <c r="J217" s="54"/>
-      <c r="K217" s="54"/>
-      <c r="L217" s="54"/>
-      <c r="M217" s="54"/>
-      <c r="N217" s="54"/>
-      <c r="O217" s="54"/>
-      <c r="P217" s="54"/>
-      <c r="Q217" s="54"/>
-      <c r="R217" s="54"/>
-      <c r="S217" s="54"/>
-      <c r="T217" s="54"/>
-      <c r="U217" s="55"/>
-      <c r="V217" s="56"/>
-      <c r="W217" s="57" t="s">
+      <c r="F217" s="53"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="54"/>
+      <c r="J217" s="55"/>
+      <c r="K217" s="55"/>
+      <c r="L217" s="55"/>
+      <c r="M217" s="55"/>
+      <c r="N217" s="55"/>
+      <c r="O217" s="55"/>
+      <c r="P217" s="55"/>
+      <c r="Q217" s="55"/>
+      <c r="R217" s="55"/>
+      <c r="S217" s="55"/>
+      <c r="T217" s="55"/>
+      <c r="U217" s="56"/>
+      <c r="V217" s="57"/>
+      <c r="W217" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="49" t="n">
+      <c r="A218" s="50" t="n">
         <v>440</v>
       </c>
-      <c r="B218" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C218" s="50" t="s">
+      <c r="B218" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D218" s="29" t="s">
@@ -12759,35 +12769,35 @@
       <c r="E218" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="F218" s="52"/>
-      <c r="G218" s="53"/>
-      <c r="H218" s="53"/>
-      <c r="I218" s="53"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="54"/>
-      <c r="L218" s="54"/>
-      <c r="M218" s="54"/>
-      <c r="N218" s="54"/>
-      <c r="O218" s="54"/>
-      <c r="P218" s="54"/>
-      <c r="Q218" s="54"/>
-      <c r="R218" s="54"/>
-      <c r="S218" s="54"/>
-      <c r="T218" s="54"/>
-      <c r="U218" s="55"/>
-      <c r="V218" s="56"/>
-      <c r="W218" s="57" t="s">
+      <c r="F218" s="53"/>
+      <c r="G218" s="54"/>
+      <c r="H218" s="54"/>
+      <c r="I218" s="54"/>
+      <c r="J218" s="55"/>
+      <c r="K218" s="55"/>
+      <c r="L218" s="55"/>
+      <c r="M218" s="55"/>
+      <c r="N218" s="55"/>
+      <c r="O218" s="55"/>
+      <c r="P218" s="55"/>
+      <c r="Q218" s="55"/>
+      <c r="R218" s="55"/>
+      <c r="S218" s="55"/>
+      <c r="T218" s="55"/>
+      <c r="U218" s="56"/>
+      <c r="V218" s="57"/>
+      <c r="W218" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="49" t="n">
+      <c r="A219" s="50" t="n">
         <v>441</v>
       </c>
-      <c r="B219" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="50" t="s">
+      <c r="B219" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="51" t="s">
         <v>474</v>
       </c>
       <c r="D219" s="29" t="s">
@@ -12796,266 +12806,266 @@
       <c r="E219" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="F219" s="52"/>
-      <c r="G219" s="53"/>
-      <c r="H219" s="53"/>
-      <c r="I219" s="53"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="54"/>
-      <c r="L219" s="54"/>
-      <c r="M219" s="54"/>
-      <c r="N219" s="54"/>
-      <c r="O219" s="54"/>
-      <c r="P219" s="54"/>
-      <c r="Q219" s="54"/>
-      <c r="R219" s="54"/>
-      <c r="S219" s="54"/>
-      <c r="T219" s="54"/>
-      <c r="U219" s="55"/>
-      <c r="V219" s="56"/>
-      <c r="W219" s="57" t="s">
+      <c r="F219" s="53"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="54"/>
+      <c r="I219" s="54"/>
+      <c r="J219" s="55"/>
+      <c r="K219" s="55"/>
+      <c r="L219" s="55"/>
+      <c r="M219" s="55"/>
+      <c r="N219" s="55"/>
+      <c r="O219" s="55"/>
+      <c r="P219" s="55"/>
+      <c r="Q219" s="55"/>
+      <c r="R219" s="55"/>
+      <c r="S219" s="55"/>
+      <c r="T219" s="55"/>
+      <c r="U219" s="56"/>
+      <c r="V219" s="57"/>
+      <c r="W219" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="40" t="n">
+      <c r="A220" s="41" t="n">
         <v>442</v>
       </c>
-      <c r="B220" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="41" t="s">
+      <c r="B220" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="D220" s="41" t="s">
+      <c r="D220" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="E220" s="42" t="s">
+      <c r="E220" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="F220" s="43"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="45"/>
-      <c r="K220" s="45"/>
-      <c r="L220" s="45"/>
-      <c r="M220" s="45"/>
-      <c r="N220" s="45"/>
-      <c r="O220" s="45"/>
-      <c r="P220" s="45"/>
-      <c r="Q220" s="45"/>
-      <c r="R220" s="45"/>
-      <c r="S220" s="45"/>
-      <c r="T220" s="45"/>
-      <c r="U220" s="46"/>
-      <c r="V220" s="58"/>
-      <c r="W220" s="39" t="s">
+      <c r="F220" s="44"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
+      <c r="J220" s="46"/>
+      <c r="K220" s="46"/>
+      <c r="L220" s="46"/>
+      <c r="M220" s="46"/>
+      <c r="N220" s="46"/>
+      <c r="O220" s="46"/>
+      <c r="P220" s="46"/>
+      <c r="Q220" s="46"/>
+      <c r="R220" s="46"/>
+      <c r="S220" s="46"/>
+      <c r="T220" s="46"/>
+      <c r="U220" s="47"/>
+      <c r="V220" s="59"/>
+      <c r="W220" s="40" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="49" t="n">
+      <c r="A221" s="50" t="n">
         <v>443</v>
       </c>
-      <c r="B221" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" s="50" t="s">
+      <c r="B221" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="D221" s="50" t="s">
+      <c r="D221" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="E221" s="51" t="s">
+      <c r="E221" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="F221" s="52"/>
-      <c r="G221" s="53"/>
-      <c r="H221" s="53"/>
-      <c r="I221" s="53"/>
-      <c r="J221" s="54"/>
-      <c r="K221" s="54"/>
-      <c r="L221" s="54"/>
-      <c r="M221" s="54"/>
-      <c r="N221" s="54"/>
-      <c r="O221" s="54"/>
-      <c r="P221" s="54"/>
-      <c r="Q221" s="54"/>
-      <c r="R221" s="54"/>
-      <c r="S221" s="54"/>
-      <c r="T221" s="54"/>
-      <c r="U221" s="55"/>
-      <c r="V221" s="56"/>
-      <c r="W221" s="57" t="s">
+      <c r="F221" s="53"/>
+      <c r="G221" s="54"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="55"/>
+      <c r="L221" s="55"/>
+      <c r="M221" s="55"/>
+      <c r="N221" s="55"/>
+      <c r="O221" s="55"/>
+      <c r="P221" s="55"/>
+      <c r="Q221" s="55"/>
+      <c r="R221" s="55"/>
+      <c r="S221" s="55"/>
+      <c r="T221" s="55"/>
+      <c r="U221" s="56"/>
+      <c r="V221" s="57"/>
+      <c r="W221" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="49" t="n">
+      <c r="A222" s="50" t="n">
         <v>444</v>
       </c>
-      <c r="B222" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="50" t="s">
+      <c r="B222" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D222" s="50" t="s">
+      <c r="D222" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="E222" s="51" t="s">
+      <c r="E222" s="52" t="s">
         <v>522</v>
       </c>
       <c r="F222" s="31" t="n">
         <v>45635</v>
       </c>
-      <c r="G222" s="53" t="s">
+      <c r="G222" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="H222" s="53" t="s">
+      <c r="H222" s="54" t="s">
         <v>524</v>
       </c>
-      <c r="I222" s="53" t="s">
+      <c r="I222" s="54" t="s">
         <v>525</v>
       </c>
       <c r="J222" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K222" s="54"/>
-      <c r="L222" s="54"/>
-      <c r="M222" s="54"/>
-      <c r="N222" s="54"/>
-      <c r="O222" s="54"/>
-      <c r="P222" s="54"/>
-      <c r="Q222" s="54"/>
-      <c r="R222" s="54"/>
-      <c r="S222" s="54"/>
-      <c r="T222" s="54"/>
-      <c r="U222" s="55"/>
-      <c r="V222" s="56"/>
-      <c r="W222" s="57" t="s">
+      <c r="K222" s="55"/>
+      <c r="L222" s="55"/>
+      <c r="M222" s="55"/>
+      <c r="N222" s="55"/>
+      <c r="O222" s="55"/>
+      <c r="P222" s="55"/>
+      <c r="Q222" s="55"/>
+      <c r="R222" s="55"/>
+      <c r="S222" s="55"/>
+      <c r="T222" s="55"/>
+      <c r="U222" s="56"/>
+      <c r="V222" s="57"/>
+      <c r="W222" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="49" t="n">
+      <c r="A223" s="50" t="n">
         <v>445</v>
       </c>
-      <c r="B223" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C223" s="50" t="s">
+      <c r="B223" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D223" s="50" t="s">
+      <c r="D223" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="E223" s="51" t="s">
+      <c r="E223" s="52" t="s">
         <v>527</v>
       </c>
       <c r="F223" s="31" t="n">
         <v>45632</v>
       </c>
-      <c r="G223" s="53" t="s">
+      <c r="G223" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="H223" s="53" t="s">
+      <c r="H223" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="I223" s="53" t="s">
+      <c r="I223" s="54" t="s">
         <v>530</v>
       </c>
       <c r="J223" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K223" s="54"/>
-      <c r="L223" s="54"/>
-      <c r="M223" s="54"/>
-      <c r="N223" s="54"/>
-      <c r="O223" s="54"/>
-      <c r="P223" s="54"/>
-      <c r="Q223" s="54"/>
-      <c r="R223" s="54"/>
-      <c r="S223" s="54"/>
-      <c r="T223" s="54"/>
-      <c r="U223" s="55"/>
-      <c r="V223" s="56"/>
-      <c r="W223" s="57" t="s">
+      <c r="K223" s="55"/>
+      <c r="L223" s="55"/>
+      <c r="M223" s="55"/>
+      <c r="N223" s="55"/>
+      <c r="O223" s="55"/>
+      <c r="P223" s="55"/>
+      <c r="Q223" s="55"/>
+      <c r="R223" s="55"/>
+      <c r="S223" s="55"/>
+      <c r="T223" s="55"/>
+      <c r="U223" s="56"/>
+      <c r="V223" s="57"/>
+      <c r="W223" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="40" t="n">
+      <c r="A224" s="41" t="n">
         <v>446</v>
       </c>
-      <c r="B224" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C224" s="41" t="s">
+      <c r="B224" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="41" t="s">
+      <c r="D224" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="E224" s="42" t="s">
+      <c r="E224" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="F224" s="43"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
-      <c r="I224" s="44"/>
-      <c r="J224" s="45"/>
-      <c r="K224" s="45"/>
-      <c r="L224" s="45"/>
-      <c r="M224" s="45"/>
-      <c r="N224" s="45"/>
-      <c r="O224" s="45"/>
-      <c r="P224" s="45"/>
-      <c r="Q224" s="45"/>
-      <c r="R224" s="45"/>
-      <c r="S224" s="45"/>
-      <c r="T224" s="45"/>
-      <c r="U224" s="46"/>
-      <c r="V224" s="58"/>
-      <c r="W224" s="39" t="s">
+      <c r="F224" s="44"/>
+      <c r="G224" s="45"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="45"/>
+      <c r="J224" s="46"/>
+      <c r="K224" s="46"/>
+      <c r="L224" s="46"/>
+      <c r="M224" s="46"/>
+      <c r="N224" s="46"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+      <c r="Q224" s="46"/>
+      <c r="R224" s="46"/>
+      <c r="S224" s="46"/>
+      <c r="T224" s="46"/>
+      <c r="U224" s="47"/>
+      <c r="V224" s="59"/>
+      <c r="W224" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="49" t="n">
+      <c r="A225" s="50" t="n">
         <v>447</v>
       </c>
-      <c r="B225" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C225" s="50" t="s">
+      <c r="B225" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D225" s="50" t="s">
+      <c r="D225" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="E225" s="51" t="s">
+      <c r="E225" s="52" t="s">
         <v>534</v>
       </c>
-      <c r="F225" s="52"/>
-      <c r="G225" s="53"/>
-      <c r="H225" s="53"/>
-      <c r="I225" s="53"/>
-      <c r="J225" s="54"/>
-      <c r="K225" s="54"/>
-      <c r="L225" s="54"/>
-      <c r="M225" s="54"/>
-      <c r="N225" s="54"/>
-      <c r="O225" s="54"/>
-      <c r="P225" s="54"/>
-      <c r="Q225" s="54"/>
-      <c r="R225" s="54"/>
-      <c r="S225" s="54"/>
-      <c r="T225" s="54"/>
-      <c r="U225" s="55"/>
-      <c r="V225" s="56"/>
-      <c r="W225" s="57" t="s">
+      <c r="F225" s="53"/>
+      <c r="G225" s="54"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="54"/>
+      <c r="J225" s="55"/>
+      <c r="K225" s="55"/>
+      <c r="L225" s="55"/>
+      <c r="M225" s="55"/>
+      <c r="N225" s="55"/>
+      <c r="O225" s="55"/>
+      <c r="P225" s="55"/>
+      <c r="Q225" s="55"/>
+      <c r="R225" s="55"/>
+      <c r="S225" s="55"/>
+      <c r="T225" s="55"/>
+      <c r="U225" s="56"/>
+      <c r="V225" s="57"/>
+      <c r="W225" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -17785,7 +17795,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>543</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -17797,150 +17807,150 @@
       <c r="D1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="63" t="n">
+      <c r="C4" s="64" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="65" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="65" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="65" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="65" t="s">
         <v>568</v>
       </c>
     </row>
@@ -18925,32 +18935,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -1506,13 +1506,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-16T13:46:58.058Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c012415a817c03be </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.a507e2fee29a630dac02dde3f390615b661565dc3ab1fb7acdf091138251b1ba.fe756fc7a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2024-12-19T14:12:14.83Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6159ec9973197da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.36a468c2afa7068f20448c70fdd7259a08dd5badc719f847330da657c3be8a0b.a3189d7cf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -2004,13 +2004,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-09T15:35:20.29Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf171ae687377b48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9957cb6d2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-12-19T15:42:51.683Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd4d90104b7df3bc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.960ab88553^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -2021,13 +2021,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-06T16:02:02.714Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e9b0bd6ed7e82a8b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.988930d9f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-12-19T16:02:25.341Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdac9b0724fcca00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9f865e0ea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -2161,7 +2161,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,12 +2266,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2531,7 +2525,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2688,10 +2682,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2776,7 +2766,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4274,11 +4264,11 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F187" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H174" activeCellId="0" sqref="H174"/>
+      <selection pane="bottomLeft" activeCell="A187" activeCellId="0" sqref="A187"/>
+      <selection pane="bottomRight" activeCell="I223" activeCellId="0" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10697,12 +10687,12 @@
         <v>374</v>
       </c>
       <c r="F173" s="31" t="n">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="H173" s="39" t="s">
+      <c r="H173" s="38" t="s">
         <v>376</v>
       </c>
       <c r="I173" s="32" t="s">
@@ -11972,92 +11962,92 @@
       <c r="T196" s="33"/>
       <c r="U196" s="34"/>
       <c r="V196" s="35"/>
-      <c r="W196" s="40" t="s">
+      <c r="W196" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="41" t="n">
+      <c r="A197" s="40" t="n">
         <v>376</v>
       </c>
-      <c r="B197" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="42" t="s">
+      <c r="B197" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="E197" s="43" t="s">
+      <c r="E197" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="F197" s="44"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="45"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="46"/>
-      <c r="K197" s="46"/>
-      <c r="L197" s="46"/>
-      <c r="M197" s="46"/>
-      <c r="N197" s="46"/>
-      <c r="O197" s="46"/>
-      <c r="P197" s="46"/>
-      <c r="Q197" s="46"/>
-      <c r="R197" s="46"/>
-      <c r="S197" s="46"/>
-      <c r="T197" s="46"/>
-      <c r="U197" s="47"/>
-      <c r="V197" s="48"/>
-      <c r="W197" s="49" t="s">
+      <c r="F197" s="43"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="44"/>
+      <c r="I197" s="44"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="45"/>
+      <c r="O197" s="45"/>
+      <c r="P197" s="45"/>
+      <c r="Q197" s="45"/>
+      <c r="R197" s="45"/>
+      <c r="S197" s="45"/>
+      <c r="T197" s="45"/>
+      <c r="U197" s="46"/>
+      <c r="V197" s="47"/>
+      <c r="W197" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="50" t="n">
+      <c r="A198" s="49" t="n">
         <v>417</v>
       </c>
-      <c r="B198" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C198" s="51" t="s">
+      <c r="B198" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D198" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="E198" s="52" t="s">
+      <c r="E198" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="F198" s="53"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="55"/>
-      <c r="L198" s="55"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
-      <c r="O198" s="55"/>
-      <c r="P198" s="55"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="55"/>
-      <c r="S198" s="55"/>
-      <c r="T198" s="55"/>
-      <c r="U198" s="56"/>
-      <c r="V198" s="57"/>
-      <c r="W198" s="58" t="s">
+      <c r="F198" s="52"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="54"/>
+      <c r="Q198" s="54"/>
+      <c r="R198" s="54"/>
+      <c r="S198" s="54"/>
+      <c r="T198" s="54"/>
+      <c r="U198" s="55"/>
+      <c r="V198" s="56"/>
+      <c r="W198" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="50" t="n">
+      <c r="A199" s="49" t="n">
         <v>418</v>
       </c>
-      <c r="B199" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="51" t="s">
+      <c r="B199" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D199" s="29" t="s">
@@ -12066,35 +12056,35 @@
       <c r="E199" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="F199" s="53"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="55"/>
-      <c r="L199" s="55"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="55"/>
-      <c r="O199" s="55"/>
-      <c r="P199" s="55"/>
-      <c r="Q199" s="55"/>
-      <c r="R199" s="55"/>
-      <c r="S199" s="55"/>
-      <c r="T199" s="55"/>
-      <c r="U199" s="56"/>
-      <c r="V199" s="57"/>
-      <c r="W199" s="58" t="s">
+      <c r="F199" s="52"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="53"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54"/>
+      <c r="N199" s="54"/>
+      <c r="O199" s="54"/>
+      <c r="P199" s="54"/>
+      <c r="Q199" s="54"/>
+      <c r="R199" s="54"/>
+      <c r="S199" s="54"/>
+      <c r="T199" s="54"/>
+      <c r="U199" s="55"/>
+      <c r="V199" s="56"/>
+      <c r="W199" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="50" t="n">
+      <c r="A200" s="49" t="n">
         <v>419</v>
       </c>
-      <c r="B200" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="51" t="s">
+      <c r="B200" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D200" s="29" t="s">
@@ -12103,35 +12093,35 @@
       <c r="E200" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="F200" s="53"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="55"/>
-      <c r="K200" s="55"/>
-      <c r="L200" s="55"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="55"/>
-      <c r="O200" s="55"/>
-      <c r="P200" s="55"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="55"/>
-      <c r="S200" s="55"/>
-      <c r="T200" s="55"/>
-      <c r="U200" s="56"/>
-      <c r="V200" s="57"/>
-      <c r="W200" s="58" t="s">
+      <c r="F200" s="52"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="53"/>
+      <c r="I200" s="53"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="54"/>
+      <c r="O200" s="54"/>
+      <c r="P200" s="54"/>
+      <c r="Q200" s="54"/>
+      <c r="R200" s="54"/>
+      <c r="S200" s="54"/>
+      <c r="T200" s="54"/>
+      <c r="U200" s="55"/>
+      <c r="V200" s="56"/>
+      <c r="W200" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="50" t="n">
+      <c r="A201" s="49" t="n">
         <v>423</v>
       </c>
-      <c r="B201" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="51" t="s">
+      <c r="B201" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D201" s="29" t="s">
@@ -12140,35 +12130,35 @@
       <c r="E201" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F201" s="53"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="55"/>
-      <c r="K201" s="55"/>
-      <c r="L201" s="55"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="55"/>
-      <c r="O201" s="55"/>
-      <c r="P201" s="55"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="55"/>
-      <c r="S201" s="55"/>
-      <c r="T201" s="55"/>
-      <c r="U201" s="56"/>
-      <c r="V201" s="57"/>
-      <c r="W201" s="58" t="s">
+      <c r="F201" s="52"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
+      <c r="P201" s="54"/>
+      <c r="Q201" s="54"/>
+      <c r="R201" s="54"/>
+      <c r="S201" s="54"/>
+      <c r="T201" s="54"/>
+      <c r="U201" s="55"/>
+      <c r="V201" s="56"/>
+      <c r="W201" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="50" t="n">
+      <c r="A202" s="49" t="n">
         <v>424</v>
       </c>
-      <c r="B202" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="51" t="s">
+      <c r="B202" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D202" s="29" t="s">
@@ -12177,35 +12167,35 @@
       <c r="E202" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F202" s="53"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="55"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="55"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="55"/>
-      <c r="O202" s="55"/>
-      <c r="P202" s="55"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="55"/>
-      <c r="S202" s="55"/>
-      <c r="T202" s="55"/>
-      <c r="U202" s="56"/>
-      <c r="V202" s="57"/>
-      <c r="W202" s="58" t="s">
+      <c r="F202" s="52"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="54"/>
+      <c r="Q202" s="54"/>
+      <c r="R202" s="54"/>
+      <c r="S202" s="54"/>
+      <c r="T202" s="54"/>
+      <c r="U202" s="55"/>
+      <c r="V202" s="56"/>
+      <c r="W202" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="50" t="n">
+      <c r="A203" s="49" t="n">
         <v>425</v>
       </c>
-      <c r="B203" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="51" t="s">
+      <c r="B203" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D203" s="29" t="s">
@@ -12214,35 +12204,35 @@
       <c r="E203" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="F203" s="53"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="55"/>
-      <c r="K203" s="55"/>
-      <c r="L203" s="55"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="55"/>
-      <c r="O203" s="55"/>
-      <c r="P203" s="55"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="55"/>
-      <c r="S203" s="55"/>
-      <c r="T203" s="55"/>
-      <c r="U203" s="56"/>
-      <c r="V203" s="57"/>
-      <c r="W203" s="58" t="s">
+      <c r="F203" s="52"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="O203" s="54"/>
+      <c r="P203" s="54"/>
+      <c r="Q203" s="54"/>
+      <c r="R203" s="54"/>
+      <c r="S203" s="54"/>
+      <c r="T203" s="54"/>
+      <c r="U203" s="55"/>
+      <c r="V203" s="56"/>
+      <c r="W203" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="50" t="n">
+      <c r="A204" s="49" t="n">
         <v>426</v>
       </c>
-      <c r="B204" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="51" t="s">
+      <c r="B204" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D204" s="29" t="s">
@@ -12251,35 +12241,35 @@
       <c r="E204" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="F204" s="53"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="J204" s="55"/>
-      <c r="K204" s="55"/>
-      <c r="L204" s="55"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="55"/>
-      <c r="O204" s="55"/>
-      <c r="P204" s="55"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="55"/>
-      <c r="S204" s="55"/>
-      <c r="T204" s="55"/>
-      <c r="U204" s="56"/>
-      <c r="V204" s="57"/>
-      <c r="W204" s="58" t="s">
+      <c r="F204" s="52"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="53"/>
+      <c r="J204" s="54"/>
+      <c r="K204" s="54"/>
+      <c r="L204" s="54"/>
+      <c r="M204" s="54"/>
+      <c r="N204" s="54"/>
+      <c r="O204" s="54"/>
+      <c r="P204" s="54"/>
+      <c r="Q204" s="54"/>
+      <c r="R204" s="54"/>
+      <c r="S204" s="54"/>
+      <c r="T204" s="54"/>
+      <c r="U204" s="55"/>
+      <c r="V204" s="56"/>
+      <c r="W204" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="50" t="n">
+      <c r="A205" s="49" t="n">
         <v>427</v>
       </c>
-      <c r="B205" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" s="51" t="s">
+      <c r="B205" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -12288,35 +12278,35 @@
       <c r="E205" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="F205" s="53"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="55"/>
-      <c r="L205" s="55"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="55"/>
-      <c r="O205" s="55"/>
-      <c r="P205" s="55"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="55"/>
-      <c r="S205" s="55"/>
-      <c r="T205" s="55"/>
-      <c r="U205" s="56"/>
-      <c r="V205" s="57"/>
-      <c r="W205" s="58" t="s">
+      <c r="F205" s="52"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="54"/>
+      <c r="O205" s="54"/>
+      <c r="P205" s="54"/>
+      <c r="Q205" s="54"/>
+      <c r="R205" s="54"/>
+      <c r="S205" s="54"/>
+      <c r="T205" s="54"/>
+      <c r="U205" s="55"/>
+      <c r="V205" s="56"/>
+      <c r="W205" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="50" t="n">
+      <c r="A206" s="49" t="n">
         <v>428</v>
       </c>
-      <c r="B206" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="51" t="s">
+      <c r="B206" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D206" s="29" t="s">
@@ -12325,35 +12315,35 @@
       <c r="E206" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="F206" s="53"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="55"/>
-      <c r="L206" s="55"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="55"/>
-      <c r="O206" s="55"/>
-      <c r="P206" s="55"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="55"/>
-      <c r="S206" s="55"/>
-      <c r="T206" s="55"/>
-      <c r="U206" s="56"/>
-      <c r="V206" s="57"/>
-      <c r="W206" s="58" t="s">
+      <c r="F206" s="52"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="O206" s="54"/>
+      <c r="P206" s="54"/>
+      <c r="Q206" s="54"/>
+      <c r="R206" s="54"/>
+      <c r="S206" s="54"/>
+      <c r="T206" s="54"/>
+      <c r="U206" s="55"/>
+      <c r="V206" s="56"/>
+      <c r="W206" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="50" t="n">
+      <c r="A207" s="49" t="n">
         <v>429</v>
       </c>
-      <c r="B207" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="51" t="s">
+      <c r="B207" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D207" s="29" t="s">
@@ -12362,35 +12352,35 @@
       <c r="E207" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="F207" s="53"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="55"/>
-      <c r="K207" s="55"/>
-      <c r="L207" s="55"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="55"/>
-      <c r="O207" s="55"/>
-      <c r="P207" s="55"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="55"/>
-      <c r="S207" s="55"/>
-      <c r="T207" s="55"/>
-      <c r="U207" s="56"/>
-      <c r="V207" s="57"/>
-      <c r="W207" s="58" t="s">
+      <c r="F207" s="52"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="53"/>
+      <c r="I207" s="53"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+      <c r="L207" s="54"/>
+      <c r="M207" s="54"/>
+      <c r="N207" s="54"/>
+      <c r="O207" s="54"/>
+      <c r="P207" s="54"/>
+      <c r="Q207" s="54"/>
+      <c r="R207" s="54"/>
+      <c r="S207" s="54"/>
+      <c r="T207" s="54"/>
+      <c r="U207" s="55"/>
+      <c r="V207" s="56"/>
+      <c r="W207" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="50" t="n">
+      <c r="A208" s="49" t="n">
         <v>430</v>
       </c>
-      <c r="B208" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="51" t="s">
+      <c r="B208" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D208" s="29" t="s">
@@ -12399,35 +12389,35 @@
       <c r="E208" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="F208" s="53"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
-      <c r="J208" s="55"/>
-      <c r="K208" s="55"/>
-      <c r="L208" s="55"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="55"/>
-      <c r="O208" s="55"/>
-      <c r="P208" s="55"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="55"/>
-      <c r="S208" s="55"/>
-      <c r="T208" s="55"/>
-      <c r="U208" s="56"/>
-      <c r="V208" s="57"/>
-      <c r="W208" s="58" t="s">
+      <c r="F208" s="52"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="54"/>
+      <c r="L208" s="54"/>
+      <c r="M208" s="54"/>
+      <c r="N208" s="54"/>
+      <c r="O208" s="54"/>
+      <c r="P208" s="54"/>
+      <c r="Q208" s="54"/>
+      <c r="R208" s="54"/>
+      <c r="S208" s="54"/>
+      <c r="T208" s="54"/>
+      <c r="U208" s="55"/>
+      <c r="V208" s="56"/>
+      <c r="W208" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="50" t="n">
+      <c r="A209" s="49" t="n">
         <v>431</v>
       </c>
-      <c r="B209" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" s="51" t="s">
+      <c r="B209" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D209" s="29" t="s">
@@ -12436,35 +12426,35 @@
       <c r="E209" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="F209" s="53"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="55"/>
-      <c r="L209" s="55"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="55"/>
-      <c r="O209" s="55"/>
-      <c r="P209" s="55"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="55"/>
-      <c r="S209" s="55"/>
-      <c r="T209" s="55"/>
-      <c r="U209" s="56"/>
-      <c r="V209" s="57"/>
-      <c r="W209" s="58" t="s">
+      <c r="F209" s="52"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="53"/>
+      <c r="I209" s="53"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="54"/>
+      <c r="Q209" s="54"/>
+      <c r="R209" s="54"/>
+      <c r="S209" s="54"/>
+      <c r="T209" s="54"/>
+      <c r="U209" s="55"/>
+      <c r="V209" s="56"/>
+      <c r="W209" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="50" t="n">
+      <c r="A210" s="49" t="n">
         <v>432</v>
       </c>
-      <c r="B210" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" s="51" t="s">
+      <c r="B210" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D210" s="29" t="s">
@@ -12473,35 +12463,35 @@
       <c r="E210" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="F210" s="53"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
-      <c r="O210" s="55"/>
-      <c r="P210" s="55"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="55"/>
-      <c r="S210" s="55"/>
-      <c r="T210" s="55"/>
-      <c r="U210" s="56"/>
-      <c r="V210" s="57"/>
-      <c r="W210" s="58" t="s">
+      <c r="F210" s="52"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="53"/>
+      <c r="I210" s="53"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="54"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="54"/>
+      <c r="S210" s="54"/>
+      <c r="T210" s="54"/>
+      <c r="U210" s="55"/>
+      <c r="V210" s="56"/>
+      <c r="W210" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="50" t="n">
+      <c r="A211" s="49" t="n">
         <v>433</v>
       </c>
-      <c r="B211" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" s="51" t="s">
+      <c r="B211" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D211" s="29" t="s">
@@ -12510,35 +12500,35 @@
       <c r="E211" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="F211" s="53"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="55"/>
-      <c r="K211" s="55"/>
-      <c r="L211" s="55"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="55"/>
-      <c r="O211" s="55"/>
-      <c r="P211" s="55"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="55"/>
-      <c r="S211" s="55"/>
-      <c r="T211" s="55"/>
-      <c r="U211" s="56"/>
-      <c r="V211" s="57"/>
-      <c r="W211" s="58" t="s">
+      <c r="F211" s="52"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53"/>
+      <c r="J211" s="54"/>
+      <c r="K211" s="54"/>
+      <c r="L211" s="54"/>
+      <c r="M211" s="54"/>
+      <c r="N211" s="54"/>
+      <c r="O211" s="54"/>
+      <c r="P211" s="54"/>
+      <c r="Q211" s="54"/>
+      <c r="R211" s="54"/>
+      <c r="S211" s="54"/>
+      <c r="T211" s="54"/>
+      <c r="U211" s="55"/>
+      <c r="V211" s="56"/>
+      <c r="W211" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="50" t="n">
+      <c r="A212" s="49" t="n">
         <v>434</v>
       </c>
-      <c r="B212" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="51" t="s">
+      <c r="B212" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D212" s="29" t="s">
@@ -12547,35 +12537,35 @@
       <c r="E212" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="F212" s="53"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="55"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="55"/>
-      <c r="O212" s="55"/>
-      <c r="P212" s="55"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="55"/>
-      <c r="S212" s="55"/>
-      <c r="T212" s="55"/>
-      <c r="U212" s="56"/>
-      <c r="V212" s="57"/>
-      <c r="W212" s="58" t="s">
+      <c r="F212" s="52"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="54"/>
+      <c r="L212" s="54"/>
+      <c r="M212" s="54"/>
+      <c r="N212" s="54"/>
+      <c r="O212" s="54"/>
+      <c r="P212" s="54"/>
+      <c r="Q212" s="54"/>
+      <c r="R212" s="54"/>
+      <c r="S212" s="54"/>
+      <c r="T212" s="54"/>
+      <c r="U212" s="55"/>
+      <c r="V212" s="56"/>
+      <c r="W212" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="50" t="n">
+      <c r="A213" s="49" t="n">
         <v>435</v>
       </c>
-      <c r="B213" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="51" t="s">
+      <c r="B213" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D213" s="29" t="s">
@@ -12584,35 +12574,35 @@
       <c r="E213" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="F213" s="53"/>
-      <c r="G213" s="54"/>
-      <c r="H213" s="54"/>
-      <c r="I213" s="54"/>
-      <c r="J213" s="55"/>
-      <c r="K213" s="55"/>
-      <c r="L213" s="55"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="55"/>
-      <c r="O213" s="55"/>
-      <c r="P213" s="55"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="55"/>
-      <c r="S213" s="55"/>
-      <c r="T213" s="55"/>
-      <c r="U213" s="56"/>
-      <c r="V213" s="57"/>
-      <c r="W213" s="58" t="s">
+      <c r="F213" s="52"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="53"/>
+      <c r="I213" s="53"/>
+      <c r="J213" s="54"/>
+      <c r="K213" s="54"/>
+      <c r="L213" s="54"/>
+      <c r="M213" s="54"/>
+      <c r="N213" s="54"/>
+      <c r="O213" s="54"/>
+      <c r="P213" s="54"/>
+      <c r="Q213" s="54"/>
+      <c r="R213" s="54"/>
+      <c r="S213" s="54"/>
+      <c r="T213" s="54"/>
+      <c r="U213" s="55"/>
+      <c r="V213" s="56"/>
+      <c r="W213" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="50" t="n">
+      <c r="A214" s="49" t="n">
         <v>436</v>
       </c>
-      <c r="B214" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="51" t="s">
+      <c r="B214" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D214" s="29" t="s">
@@ -12621,35 +12611,35 @@
       <c r="E214" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="F214" s="53"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="54"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="55"/>
-      <c r="Q214" s="55"/>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
-      <c r="U214" s="56"/>
-      <c r="V214" s="57"/>
-      <c r="W214" s="58" t="s">
+      <c r="F214" s="52"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="53"/>
+      <c r="I214" s="53"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="54"/>
+      <c r="L214" s="54"/>
+      <c r="M214" s="54"/>
+      <c r="N214" s="54"/>
+      <c r="O214" s="54"/>
+      <c r="P214" s="54"/>
+      <c r="Q214" s="54"/>
+      <c r="R214" s="54"/>
+      <c r="S214" s="54"/>
+      <c r="T214" s="54"/>
+      <c r="U214" s="55"/>
+      <c r="V214" s="56"/>
+      <c r="W214" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="50" t="n">
+      <c r="A215" s="49" t="n">
         <v>437</v>
       </c>
-      <c r="B215" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="51" t="s">
+      <c r="B215" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D215" s="29" t="s">
@@ -12658,35 +12648,35 @@
       <c r="E215" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="F215" s="53"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-      <c r="J215" s="55"/>
-      <c r="K215" s="55"/>
-      <c r="L215" s="55"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="55"/>
-      <c r="O215" s="55"/>
-      <c r="P215" s="55"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="55"/>
-      <c r="S215" s="55"/>
-      <c r="T215" s="55"/>
-      <c r="U215" s="56"/>
-      <c r="V215" s="57"/>
-      <c r="W215" s="58" t="s">
+      <c r="F215" s="52"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="53"/>
+      <c r="I215" s="53"/>
+      <c r="J215" s="54"/>
+      <c r="K215" s="54"/>
+      <c r="L215" s="54"/>
+      <c r="M215" s="54"/>
+      <c r="N215" s="54"/>
+      <c r="O215" s="54"/>
+      <c r="P215" s="54"/>
+      <c r="Q215" s="54"/>
+      <c r="R215" s="54"/>
+      <c r="S215" s="54"/>
+      <c r="T215" s="54"/>
+      <c r="U215" s="55"/>
+      <c r="V215" s="56"/>
+      <c r="W215" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="50" t="n">
+      <c r="A216" s="49" t="n">
         <v>438</v>
       </c>
-      <c r="B216" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="51" t="s">
+      <c r="B216" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D216" s="29" t="s">
@@ -12695,35 +12685,35 @@
       <c r="E216" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="F216" s="53"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="54"/>
-      <c r="J216" s="55"/>
-      <c r="K216" s="55"/>
-      <c r="L216" s="55"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
-      <c r="O216" s="55"/>
-      <c r="P216" s="55"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="55"/>
-      <c r="S216" s="55"/>
-      <c r="T216" s="55"/>
-      <c r="U216" s="56"/>
-      <c r="V216" s="57"/>
-      <c r="W216" s="58" t="s">
+      <c r="F216" s="52"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="53"/>
+      <c r="I216" s="53"/>
+      <c r="J216" s="54"/>
+      <c r="K216" s="54"/>
+      <c r="L216" s="54"/>
+      <c r="M216" s="54"/>
+      <c r="N216" s="54"/>
+      <c r="O216" s="54"/>
+      <c r="P216" s="54"/>
+      <c r="Q216" s="54"/>
+      <c r="R216" s="54"/>
+      <c r="S216" s="54"/>
+      <c r="T216" s="54"/>
+      <c r="U216" s="55"/>
+      <c r="V216" s="56"/>
+      <c r="W216" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="50" t="n">
+      <c r="A217" s="49" t="n">
         <v>439</v>
       </c>
-      <c r="B217" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="51" t="s">
+      <c r="B217" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D217" s="29" t="s">
@@ -12732,35 +12722,35 @@
       <c r="E217" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="F217" s="53"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="54"/>
-      <c r="I217" s="54"/>
-      <c r="J217" s="55"/>
-      <c r="K217" s="55"/>
-      <c r="L217" s="55"/>
-      <c r="M217" s="55"/>
-      <c r="N217" s="55"/>
-      <c r="O217" s="55"/>
-      <c r="P217" s="55"/>
-      <c r="Q217" s="55"/>
-      <c r="R217" s="55"/>
-      <c r="S217" s="55"/>
-      <c r="T217" s="55"/>
-      <c r="U217" s="56"/>
-      <c r="V217" s="57"/>
-      <c r="W217" s="58" t="s">
+      <c r="F217" s="52"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="53"/>
+      <c r="I217" s="53"/>
+      <c r="J217" s="54"/>
+      <c r="K217" s="54"/>
+      <c r="L217" s="54"/>
+      <c r="M217" s="54"/>
+      <c r="N217" s="54"/>
+      <c r="O217" s="54"/>
+      <c r="P217" s="54"/>
+      <c r="Q217" s="54"/>
+      <c r="R217" s="54"/>
+      <c r="S217" s="54"/>
+      <c r="T217" s="54"/>
+      <c r="U217" s="55"/>
+      <c r="V217" s="56"/>
+      <c r="W217" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="50" t="n">
+      <c r="A218" s="49" t="n">
         <v>440</v>
       </c>
-      <c r="B218" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C218" s="51" t="s">
+      <c r="B218" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D218" s="29" t="s">
@@ -12769,35 +12759,35 @@
       <c r="E218" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="F218" s="53"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="55"/>
-      <c r="K218" s="55"/>
-      <c r="L218" s="55"/>
-      <c r="M218" s="55"/>
-      <c r="N218" s="55"/>
-      <c r="O218" s="55"/>
-      <c r="P218" s="55"/>
-      <c r="Q218" s="55"/>
-      <c r="R218" s="55"/>
-      <c r="S218" s="55"/>
-      <c r="T218" s="55"/>
-      <c r="U218" s="56"/>
-      <c r="V218" s="57"/>
-      <c r="W218" s="58" t="s">
+      <c r="F218" s="52"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="53"/>
+      <c r="I218" s="53"/>
+      <c r="J218" s="54"/>
+      <c r="K218" s="54"/>
+      <c r="L218" s="54"/>
+      <c r="M218" s="54"/>
+      <c r="N218" s="54"/>
+      <c r="O218" s="54"/>
+      <c r="P218" s="54"/>
+      <c r="Q218" s="54"/>
+      <c r="R218" s="54"/>
+      <c r="S218" s="54"/>
+      <c r="T218" s="54"/>
+      <c r="U218" s="55"/>
+      <c r="V218" s="56"/>
+      <c r="W218" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="50" t="n">
+      <c r="A219" s="49" t="n">
         <v>441</v>
       </c>
-      <c r="B219" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="51" t="s">
+      <c r="B219" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="50" t="s">
         <v>474</v>
       </c>
       <c r="D219" s="29" t="s">
@@ -12806,266 +12796,266 @@
       <c r="E219" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="F219" s="53"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="55"/>
-      <c r="O219" s="55"/>
-      <c r="P219" s="55"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="55"/>
-      <c r="S219" s="55"/>
-      <c r="T219" s="55"/>
-      <c r="U219" s="56"/>
-      <c r="V219" s="57"/>
-      <c r="W219" s="58" t="s">
+      <c r="F219" s="52"/>
+      <c r="G219" s="53"/>
+      <c r="H219" s="53"/>
+      <c r="I219" s="53"/>
+      <c r="J219" s="54"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="54"/>
+      <c r="N219" s="54"/>
+      <c r="O219" s="54"/>
+      <c r="P219" s="54"/>
+      <c r="Q219" s="54"/>
+      <c r="R219" s="54"/>
+      <c r="S219" s="54"/>
+      <c r="T219" s="54"/>
+      <c r="U219" s="55"/>
+      <c r="V219" s="56"/>
+      <c r="W219" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="41" t="n">
+      <c r="A220" s="40" t="n">
         <v>442</v>
       </c>
-      <c r="B220" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="42" t="s">
+      <c r="B220" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="D220" s="42" t="s">
+      <c r="D220" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="E220" s="43" t="s">
+      <c r="E220" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F220" s="44"/>
-      <c r="G220" s="45"/>
-      <c r="H220" s="45"/>
-      <c r="I220" s="45"/>
-      <c r="J220" s="46"/>
-      <c r="K220" s="46"/>
-      <c r="L220" s="46"/>
-      <c r="M220" s="46"/>
-      <c r="N220" s="46"/>
-      <c r="O220" s="46"/>
-      <c r="P220" s="46"/>
-      <c r="Q220" s="46"/>
-      <c r="R220" s="46"/>
-      <c r="S220" s="46"/>
-      <c r="T220" s="46"/>
-      <c r="U220" s="47"/>
-      <c r="V220" s="59"/>
-      <c r="W220" s="40" t="s">
+      <c r="F220" s="43"/>
+      <c r="G220" s="44"/>
+      <c r="H220" s="44"/>
+      <c r="I220" s="44"/>
+      <c r="J220" s="45"/>
+      <c r="K220" s="45"/>
+      <c r="L220" s="45"/>
+      <c r="M220" s="45"/>
+      <c r="N220" s="45"/>
+      <c r="O220" s="45"/>
+      <c r="P220" s="45"/>
+      <c r="Q220" s="45"/>
+      <c r="R220" s="45"/>
+      <c r="S220" s="45"/>
+      <c r="T220" s="45"/>
+      <c r="U220" s="46"/>
+      <c r="V220" s="58"/>
+      <c r="W220" s="39" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="50" t="n">
+      <c r="A221" s="49" t="n">
         <v>443</v>
       </c>
-      <c r="B221" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" s="51" t="s">
+      <c r="B221" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="E221" s="52" t="s">
+      <c r="E221" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="F221" s="53"/>
-      <c r="G221" s="54"/>
-      <c r="H221" s="54"/>
-      <c r="I221" s="54"/>
-      <c r="J221" s="55"/>
-      <c r="K221" s="55"/>
-      <c r="L221" s="55"/>
-      <c r="M221" s="55"/>
-      <c r="N221" s="55"/>
-      <c r="O221" s="55"/>
-      <c r="P221" s="55"/>
-      <c r="Q221" s="55"/>
-      <c r="R221" s="55"/>
-      <c r="S221" s="55"/>
-      <c r="T221" s="55"/>
-      <c r="U221" s="56"/>
-      <c r="V221" s="57"/>
-      <c r="W221" s="58" t="s">
+      <c r="F221" s="52"/>
+      <c r="G221" s="53"/>
+      <c r="H221" s="53"/>
+      <c r="I221" s="53"/>
+      <c r="J221" s="54"/>
+      <c r="K221" s="54"/>
+      <c r="L221" s="54"/>
+      <c r="M221" s="54"/>
+      <c r="N221" s="54"/>
+      <c r="O221" s="54"/>
+      <c r="P221" s="54"/>
+      <c r="Q221" s="54"/>
+      <c r="R221" s="54"/>
+      <c r="S221" s="54"/>
+      <c r="T221" s="54"/>
+      <c r="U221" s="55"/>
+      <c r="V221" s="56"/>
+      <c r="W221" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="50" t="n">
+      <c r="A222" s="49" t="n">
         <v>444</v>
       </c>
-      <c r="B222" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="51" t="s">
+      <c r="B222" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="E222" s="52" t="s">
+      <c r="E222" s="51" t="s">
         <v>522</v>
       </c>
       <c r="F222" s="31" t="n">
-        <v>45635</v>
-      </c>
-      <c r="G222" s="54" t="s">
+        <v>45645</v>
+      </c>
+      <c r="G222" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="H222" s="54" t="s">
+      <c r="H222" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="I222" s="54" t="s">
+      <c r="I222" s="53" t="s">
         <v>525</v>
       </c>
       <c r="J222" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K222" s="55"/>
-      <c r="L222" s="55"/>
-      <c r="M222" s="55"/>
-      <c r="N222" s="55"/>
-      <c r="O222" s="55"/>
-      <c r="P222" s="55"/>
-      <c r="Q222" s="55"/>
-      <c r="R222" s="55"/>
-      <c r="S222" s="55"/>
-      <c r="T222" s="55"/>
-      <c r="U222" s="56"/>
-      <c r="V222" s="57"/>
-      <c r="W222" s="58" t="s">
+      <c r="K222" s="54"/>
+      <c r="L222" s="54"/>
+      <c r="M222" s="54"/>
+      <c r="N222" s="54"/>
+      <c r="O222" s="54"/>
+      <c r="P222" s="54"/>
+      <c r="Q222" s="54"/>
+      <c r="R222" s="54"/>
+      <c r="S222" s="54"/>
+      <c r="T222" s="54"/>
+      <c r="U222" s="55"/>
+      <c r="V222" s="56"/>
+      <c r="W222" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="50" t="n">
+      <c r="A223" s="49" t="n">
         <v>445</v>
       </c>
-      <c r="B223" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C223" s="51" t="s">
+      <c r="B223" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="E223" s="52" t="s">
+      <c r="E223" s="51" t="s">
         <v>527</v>
       </c>
       <c r="F223" s="31" t="n">
-        <v>45632</v>
-      </c>
-      <c r="G223" s="54" t="s">
+        <v>45645</v>
+      </c>
+      <c r="G223" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="H223" s="54" t="s">
+      <c r="H223" s="53" t="s">
         <v>529</v>
       </c>
-      <c r="I223" s="54" t="s">
+      <c r="I223" s="53" t="s">
         <v>530</v>
       </c>
       <c r="J223" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K223" s="55"/>
-      <c r="L223" s="55"/>
-      <c r="M223" s="55"/>
-      <c r="N223" s="55"/>
-      <c r="O223" s="55"/>
-      <c r="P223" s="55"/>
-      <c r="Q223" s="55"/>
-      <c r="R223" s="55"/>
-      <c r="S223" s="55"/>
-      <c r="T223" s="55"/>
-      <c r="U223" s="56"/>
-      <c r="V223" s="57"/>
-      <c r="W223" s="58" t="s">
+      <c r="K223" s="54"/>
+      <c r="L223" s="54"/>
+      <c r="M223" s="54"/>
+      <c r="N223" s="54"/>
+      <c r="O223" s="54"/>
+      <c r="P223" s="54"/>
+      <c r="Q223" s="54"/>
+      <c r="R223" s="54"/>
+      <c r="S223" s="54"/>
+      <c r="T223" s="54"/>
+      <c r="U223" s="55"/>
+      <c r="V223" s="56"/>
+      <c r="W223" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="41" t="n">
+      <c r="A224" s="40" t="n">
         <v>446</v>
       </c>
-      <c r="B224" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C224" s="42" t="s">
+      <c r="B224" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="42" t="s">
+      <c r="D224" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="E224" s="43" t="s">
+      <c r="E224" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="F224" s="44"/>
-      <c r="G224" s="45"/>
-      <c r="H224" s="45"/>
-      <c r="I224" s="45"/>
-      <c r="J224" s="46"/>
-      <c r="K224" s="46"/>
-      <c r="L224" s="46"/>
-      <c r="M224" s="46"/>
-      <c r="N224" s="46"/>
-      <c r="O224" s="46"/>
-      <c r="P224" s="46"/>
-      <c r="Q224" s="46"/>
-      <c r="R224" s="46"/>
-      <c r="S224" s="46"/>
-      <c r="T224" s="46"/>
-      <c r="U224" s="47"/>
-      <c r="V224" s="59"/>
-      <c r="W224" s="40" t="s">
+      <c r="F224" s="43"/>
+      <c r="G224" s="44"/>
+      <c r="H224" s="44"/>
+      <c r="I224" s="44"/>
+      <c r="J224" s="45"/>
+      <c r="K224" s="45"/>
+      <c r="L224" s="45"/>
+      <c r="M224" s="45"/>
+      <c r="N224" s="45"/>
+      <c r="O224" s="45"/>
+      <c r="P224" s="45"/>
+      <c r="Q224" s="45"/>
+      <c r="R224" s="45"/>
+      <c r="S224" s="45"/>
+      <c r="T224" s="45"/>
+      <c r="U224" s="46"/>
+      <c r="V224" s="58"/>
+      <c r="W224" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="50" t="n">
+      <c r="A225" s="49" t="n">
         <v>447</v>
       </c>
-      <c r="B225" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C225" s="51" t="s">
+      <c r="B225" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="F225" s="53"/>
-      <c r="G225" s="54"/>
-      <c r="H225" s="54"/>
-      <c r="I225" s="54"/>
-      <c r="J225" s="55"/>
-      <c r="K225" s="55"/>
-      <c r="L225" s="55"/>
-      <c r="M225" s="55"/>
-      <c r="N225" s="55"/>
-      <c r="O225" s="55"/>
-      <c r="P225" s="55"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="55"/>
-      <c r="S225" s="55"/>
-      <c r="T225" s="55"/>
-      <c r="U225" s="56"/>
-      <c r="V225" s="57"/>
-      <c r="W225" s="58" t="s">
+      <c r="F225" s="52"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="53"/>
+      <c r="I225" s="53"/>
+      <c r="J225" s="54"/>
+      <c r="K225" s="54"/>
+      <c r="L225" s="54"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="54"/>
+      <c r="O225" s="54"/>
+      <c r="P225" s="54"/>
+      <c r="Q225" s="54"/>
+      <c r="R225" s="54"/>
+      <c r="S225" s="54"/>
+      <c r="T225" s="54"/>
+      <c r="U225" s="55"/>
+      <c r="V225" s="56"/>
+      <c r="W225" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -17795,7 +17785,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>543</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -17807,150 +17797,150 @@
       <c r="D1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="63" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>568</v>
       </c>
     </row>
@@ -18935,32 +18925,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -2004,13 +2004,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-19T15:42:51.683Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd4d90104b7df3bc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.960ab88553^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-07T11:59:50.873Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202458aad88c06b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.7acae1a895^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -2021,13 +2021,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-19T16:02:25.341Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdac9b0724fcca00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9f865e0ea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-07T12:08:47.559Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0175d102e17e7ca1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.eefa678ba2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -2161,7 +2161,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,6 +2266,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2525,7 +2531,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2762,11 +2768,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3100,7 +3110,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="2" sqref="I223 H228 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3187,7 +3197,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="2" sqref="I223 H228 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4264,11 +4274,11 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F189" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A187" activeCellId="0" sqref="A187"/>
-      <selection pane="bottomRight" activeCell="I223" activeCellId="0" sqref="I223"/>
+      <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="H228" activeCellId="1" sqref="I223 H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12908,7 +12918,7 @@
         <v>522</v>
       </c>
       <c r="F222" s="31" t="n">
-        <v>45645</v>
+        <v>45664</v>
       </c>
       <c r="G222" s="53" t="s">
         <v>523</v>
@@ -12954,8 +12964,8 @@
       <c r="E223" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="F223" s="31" t="n">
-        <v>45645</v>
+      <c r="F223" s="59" t="n">
+        <v>45664</v>
       </c>
       <c r="G223" s="53" t="s">
         <v>528</v>
@@ -17704,7 +17714,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="2" sqref="I223 H228 I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17770,7 +17780,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="2" sqref="I223 H228 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17785,7 +17795,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>543</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -17797,150 +17807,150 @@
       <c r="D1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="63" t="n">
+      <c r="C4" s="64" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="65" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="65" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="65" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="65" t="s">
         <v>568</v>
       </c>
     </row>
@@ -18914,7 +18924,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="I223 H228 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18925,32 +18935,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -2161,7 +2161,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,12 +2266,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2531,7 +2525,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2768,15 +2762,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3110,7 +3100,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="2" sqref="I223 H228 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3197,7 +3187,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="2" sqref="I223 H228 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4278,7 +4268,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
-      <selection pane="bottomRight" activeCell="H228" activeCellId="1" sqref="I223 H228"/>
+      <selection pane="bottomRight" activeCell="H228" activeCellId="0" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12964,7 +12954,7 @@
       <c r="E223" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="F223" s="59" t="n">
+      <c r="F223" s="31" t="n">
         <v>45664</v>
       </c>
       <c r="G223" s="53" t="s">
@@ -17714,7 +17704,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="2" sqref="I223 H228 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17780,7 +17770,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="2" sqref="I223 H228 B9"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17795,7 +17785,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>543</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -17807,150 +17797,150 @@
       <c r="D1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="63" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>568</v>
       </c>
     </row>
@@ -18924,7 +18914,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="I223 H228 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18935,32 +18925,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -2004,13 +2004,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-07T11:59:50.873Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202458aad88c06b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.7acae1a895^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-23T09:25:35.962Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660b06d9d8d4ed18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.dee5b19038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -4268,7 +4268,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
-      <selection pane="bottomRight" activeCell="H228" activeCellId="0" sqref="H228"/>
+      <selection pane="bottomRight" activeCell="I222" activeCellId="0" sqref="I222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12908,7 +12908,7 @@
         <v>522</v>
       </c>
       <c r="F222" s="31" t="n">
-        <v>45664</v>
+        <v>45680</v>
       </c>
       <c r="G222" s="53" t="s">
         <v>523</v>

--- a/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#EVOLUSXX/EVOLUS/FSE_UTILS/1.0.0/accreditamento-checklist_V8.2.xlsx
@@ -515,10 +515,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-03T15:44:14Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7fbc859a0f237331 </t>
+    <t xml:space="preserve">2025-01-23T15:28:37.647Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e59a5a6c5a47e6ff</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -616,10 +616,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_PSS_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-03T15:52:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e739a8166addaf6d </t>
+    <t xml:space="preserve">2025-01-23T15:38:01.327Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4a929e12ac8ee59</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
@@ -2021,13 +2021,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-07T12:08:47.559Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0175d102e17e7ca1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.eefa678ba2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-23T09:44:07.219Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee4e72b2cd37eb90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.668fbe7de0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -4264,11 +4264,11 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
-      <selection pane="bottomRight" activeCell="I222" activeCellId="0" sqref="I222"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5406,7 +5406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="n">
         <v>30</v>
       </c>
@@ -5423,12 +5423,12 @@
         <v>97</v>
       </c>
       <c r="F33" s="31" t="n">
-        <v>45629</v>
+        <v>45680</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="32" t="s">
         <v>103</v>
       </c>
       <c r="I33" s="32" t="s">
@@ -5726,7 +5726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="n">
         <v>38</v>
       </c>
@@ -5743,12 +5743,12 @@
         <v>117</v>
       </c>
       <c r="F41" s="31" t="n">
-        <v>45629</v>
+        <v>45680</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="32" t="s">
         <v>121</v>
       </c>
       <c r="I41" s="32" t="s">
@@ -10692,7 +10692,7 @@
       <c r="G173" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="H173" s="38" t="s">
+      <c r="H173" s="32" t="s">
         <v>376</v>
       </c>
       <c r="I173" s="32" t="s">
@@ -10814,7 +10814,7 @@
       <c r="G175" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="H175" s="38" t="s">
+      <c r="H175" s="32" t="s">
         <v>386</v>
       </c>
       <c r="I175" s="38" t="s">
@@ -11058,7 +11058,7 @@
       <c r="G179" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="H179" s="38" t="s">
+      <c r="H179" s="32" t="s">
         <v>406</v>
       </c>
       <c r="I179" s="32" t="s">
@@ -12955,7 +12955,7 @@
         <v>527</v>
       </c>
       <c r="F223" s="31" t="n">
-        <v>45664</v>
+        <v>45680</v>
       </c>
       <c r="G223" s="53" t="s">
         <v>528</v>
